--- a/TPJAX/Test.xlsx
+++ b/TPJAX/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="802">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,49 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCLU4211566</t>
+    <t>NYKU4299671</t>
+  </si>
+  <si>
+    <t>KYOTO EXPRESS</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>CHI1251630-CHI8539375</t>
+  </si>
+  <si>
+    <t>SZPV62315305</t>
+  </si>
+  <si>
+    <t>BEAU4438646</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539442</t>
+  </si>
+  <si>
+    <t>SZPV60267713</t>
+  </si>
+  <si>
+    <t>TCNU4847621</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539436</t>
+  </si>
+  <si>
+    <t>SZPV60267719</t>
+  </si>
+  <si>
+    <t>KKFU7865560</t>
+  </si>
+  <si>
+    <t>CHI1251665-CHI8539395</t>
+  </si>
+  <si>
+    <t>SZPV53591915</t>
+  </si>
+  <si>
+    <t>TCLU6316205</t>
   </si>
   <si>
     <t>GRANVILLE BRIDGE</t>
@@ -41,27 +83,186 @@
     <t>0093</t>
   </si>
   <si>
-    <t>CHI1243012-CHI8487748</t>
-  </si>
-  <si>
-    <t>JKTV41748900</t>
+    <t>CHI1251687-CHI8539578</t>
+  </si>
+  <si>
+    <t>SGNV59309900</t>
+  </si>
+  <si>
+    <t>TLLU4682369</t>
+  </si>
+  <si>
+    <t>CHI1250911-CHI8539347</t>
+  </si>
+  <si>
+    <t>SZPV62315338</t>
+  </si>
+  <si>
+    <t>NYKU5178442</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539422</t>
+  </si>
+  <si>
+    <t>HKGV74456900</t>
+  </si>
+  <si>
+    <t>MOTU0622009</t>
+  </si>
+  <si>
+    <t>CHI1250917-CHI8539388</t>
+  </si>
+  <si>
+    <t>HKGV81260701</t>
+  </si>
+  <si>
+    <t>TCLU6244640</t>
+  </si>
+  <si>
+    <t>CHI1250917-CHI8539458</t>
+  </si>
+  <si>
+    <t>HKGV80056900</t>
+  </si>
+  <si>
+    <t>TCNU6450211</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539397</t>
+  </si>
+  <si>
+    <t>SZPV54985300</t>
+  </si>
+  <si>
+    <t>KKFU7546590</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539405</t>
+  </si>
+  <si>
+    <t>SZPV60020802</t>
+  </si>
+  <si>
+    <t>TCKU4728551</t>
+  </si>
+  <si>
+    <t>CHI1251029-CHI8539597</t>
+  </si>
+  <si>
+    <t>SGNV57318700</t>
+  </si>
+  <si>
+    <t>NYKU5920269</t>
+  </si>
+  <si>
+    <t>CHI1252131-CHI8544276</t>
+  </si>
+  <si>
+    <t>SGNV53850400</t>
+  </si>
+  <si>
+    <t>TRHU3884141</t>
+  </si>
+  <si>
+    <t>MOL MANEUVER</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>CHI1251048-CHI8539295</t>
+  </si>
+  <si>
+    <t>SH9ABE098900</t>
+  </si>
+  <si>
+    <t>TEMU8387421</t>
+  </si>
+  <si>
+    <t>CHI1252131-CHI8544274</t>
+  </si>
+  <si>
+    <t>SGNV53552300</t>
+  </si>
+  <si>
+    <t>CAIU5832746</t>
+  </si>
+  <si>
+    <t>MOL MAXIM</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>CHI1252162-CHI8544471</t>
+  </si>
+  <si>
+    <t>TA8RG0126600</t>
+  </si>
+  <si>
+    <t>TCLU4252668</t>
+  </si>
+  <si>
+    <t>CHI1251030-CHI8539328</t>
+  </si>
+  <si>
+    <t>SH9AB5343900</t>
   </si>
   <si>
     <t>CAIU5822753</t>
   </si>
   <si>
-    <t>MOL MANEUVER</t>
-  </si>
-  <si>
-    <t>0047</t>
-  </si>
-  <si>
     <t>CHI1247817-CHI8514289</t>
   </si>
   <si>
     <t>NB8BIJ129500</t>
   </si>
   <si>
+    <t>TCLU4546261</t>
+  </si>
+  <si>
+    <t>CHI1250867-CHI8539457</t>
+  </si>
+  <si>
+    <t>HKGV77389300</t>
+  </si>
+  <si>
+    <t>TLLU5726369</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539446</t>
+  </si>
+  <si>
+    <t>SZPV60267709</t>
+  </si>
+  <si>
+    <t>DRYU9966087</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539437</t>
+  </si>
+  <si>
+    <t>SZPV60267718</t>
+  </si>
+  <si>
+    <t>FDCU0361549</t>
+  </si>
+  <si>
+    <t>CHI1251665-CHI8539364</t>
+  </si>
+  <si>
+    <t>SZPV62315320</t>
+  </si>
+  <si>
+    <t>TCLU6271327</t>
+  </si>
+  <si>
+    <t>CHI1251687-CHI8539573</t>
+  </si>
+  <si>
+    <t>SGNV59301800</t>
+  </si>
+  <si>
     <t>DRYU9965413</t>
   </si>
   <si>
@@ -77,96 +278,357 @@
     <t>CHI1247998-CHI8515616</t>
   </si>
   <si>
-    <t>TTNU3140869</t>
-  </si>
-  <si>
-    <t>CHI1244218-CHI8493551</t>
-  </si>
-  <si>
-    <t>BKKV64067300</t>
-  </si>
-  <si>
-    <t>FDCU0346056</t>
-  </si>
-  <si>
-    <t>YM MODESTY</t>
-  </si>
-  <si>
-    <t>0041</t>
-  </si>
-  <si>
-    <t>CHI1243979-CHI8491941</t>
-  </si>
-  <si>
-    <t>BKKV64020600</t>
-  </si>
-  <si>
-    <t>MOFU6767290</t>
-  </si>
-  <si>
-    <t>KYOTO EXPRESS</t>
-  </si>
-  <si>
-    <t>0085</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492565</t>
-  </si>
-  <si>
-    <t>FOCV03910600</t>
-  </si>
-  <si>
-    <t>CAIU8648028</t>
-  </si>
-  <si>
-    <t>CHI1244090-CHI8492771</t>
-  </si>
-  <si>
-    <t>XMNV29326800</t>
-  </si>
-  <si>
-    <t>UETU4020286</t>
-  </si>
-  <si>
-    <t>CHI1244092-CHI8492765</t>
-  </si>
-  <si>
-    <t>XMNV27891600</t>
-  </si>
-  <si>
-    <t>SEGU5868704</t>
-  </si>
-  <si>
-    <t>CHI1244090-CHI8492773</t>
-  </si>
-  <si>
-    <t>XMNV29335800</t>
-  </si>
-  <si>
-    <t>CAIU5839479</t>
-  </si>
-  <si>
-    <t>CHI1244092-CHI8492763</t>
-  </si>
-  <si>
-    <t>XMNV28558700</t>
+    <t>MOTU5808887</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539472</t>
+  </si>
+  <si>
+    <t>HKGV80575802</t>
+  </si>
+  <si>
+    <t>SEGU5962726</t>
+  </si>
+  <si>
+    <t>CHI1250946-CHI8539460</t>
+  </si>
+  <si>
+    <t>TCLU4219269</t>
+  </si>
+  <si>
+    <t>CHI1250974-CHI8539409</t>
+  </si>
+  <si>
+    <t>SZPV60020803</t>
+  </si>
+  <si>
+    <t>GESU6576132</t>
+  </si>
+  <si>
+    <t>CHI1250976-CHI8539594</t>
+  </si>
+  <si>
+    <t>SGNV60798600</t>
+  </si>
+  <si>
+    <t>FCIU9056042</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539401</t>
+  </si>
+  <si>
+    <t>ONEU0126417</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539417</t>
+  </si>
+  <si>
+    <t>TCNU4114579</t>
+  </si>
+  <si>
+    <t>CHI1251699-CHI8539418</t>
+  </si>
+  <si>
+    <t>SZPV62315300</t>
+  </si>
+  <si>
+    <t>BSIU9437690</t>
+  </si>
+  <si>
+    <t>CHI1251698-CHI8539322</t>
+  </si>
+  <si>
+    <t>SH9FB9401600</t>
+  </si>
+  <si>
+    <t>TLLU4198170</t>
+  </si>
+  <si>
+    <t>CHI1251080-CHI8539480</t>
+  </si>
+  <si>
+    <t>SZPV62957800</t>
+  </si>
+  <si>
+    <t>TCLU8939360</t>
+  </si>
+  <si>
+    <t>CHI1251080-CHI8539385</t>
+  </si>
+  <si>
+    <t>SZPV62899600</t>
+  </si>
+  <si>
+    <t>TGCU0215986</t>
+  </si>
+  <si>
+    <t>CHI1252162-CHI8544468</t>
+  </si>
+  <si>
+    <t>TA8RG0125500</t>
+  </si>
+  <si>
+    <t>TLLU1628467</t>
+  </si>
+  <si>
+    <t>YM MODERATION</t>
+  </si>
+  <si>
+    <t>CHI1250839-CHI8539516</t>
+  </si>
+  <si>
+    <t>PNHV04416700</t>
+  </si>
+  <si>
+    <t>NYKU3578049</t>
+  </si>
+  <si>
+    <t>HONOLULU BRIDGE</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>CHI1250852-CHI8539293</t>
+  </si>
+  <si>
+    <t>HKGV58538500</t>
+  </si>
+  <si>
+    <t>NYKU4352267</t>
+  </si>
+  <si>
+    <t>CHI1250890-CHI8539564</t>
+  </si>
+  <si>
+    <t>SGNV59122900</t>
+  </si>
+  <si>
+    <t>TCLU8677090</t>
+  </si>
+  <si>
+    <t>CHI1250911-CHI8539339</t>
+  </si>
+  <si>
+    <t>SZPV62315346</t>
+  </si>
+  <si>
+    <t>MOTU1427795</t>
+  </si>
+  <si>
+    <t>CHI1250911-CHI8539366</t>
+  </si>
+  <si>
+    <t>SZPV62315318</t>
+  </si>
+  <si>
+    <t>TCLU8946380</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539424</t>
+  </si>
+  <si>
+    <t>MOFU0642295</t>
+  </si>
+  <si>
+    <t>CHI1252162-CHI8544472</t>
+  </si>
+  <si>
+    <t>KKFU8063256</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539403</t>
   </si>
   <si>
     <t>TCLU1662294</t>
   </si>
   <si>
-    <t>YM MODERATION</t>
-  </si>
-  <si>
-    <t>0045</t>
-  </si>
-  <si>
     <t>CHI1247106-CHI8510261</t>
   </si>
   <si>
     <t>SUBV10790700</t>
   </si>
   <si>
+    <t>TEMU7364165</t>
+  </si>
+  <si>
+    <t>CHI1251630-CHI8539420</t>
+  </si>
+  <si>
+    <t>HJMU1948301</t>
+  </si>
+  <si>
+    <t>CHI1251658-CHI8539360</t>
+  </si>
+  <si>
+    <t>SZPV62315324</t>
+  </si>
+  <si>
+    <t>TCNU5854224</t>
+  </si>
+  <si>
+    <t>CHI1251660-CHI8539570</t>
+  </si>
+  <si>
+    <t>SGNV59016400</t>
+  </si>
+  <si>
+    <t>TRLU7456495</t>
+  </si>
+  <si>
+    <t>CHI1251660-CHI8539586</t>
+  </si>
+  <si>
+    <t>SGNV60895400</t>
+  </si>
+  <si>
+    <t>NYKU4330587</t>
+  </si>
+  <si>
+    <t>CHI1251665-CHI8539373</t>
+  </si>
+  <si>
+    <t>SZPV62315311</t>
+  </si>
+  <si>
+    <t>TCLU1531099</t>
+  </si>
+  <si>
+    <t>CHI1251687-CHI8539563</t>
+  </si>
+  <si>
+    <t>SGNV59119800</t>
+  </si>
+  <si>
+    <t>TLLU5667667</t>
+  </si>
+  <si>
+    <t>CHI1251629-CHI8539554</t>
+  </si>
+  <si>
+    <t>SGNV58742900</t>
+  </si>
+  <si>
+    <t>TLLU5621748</t>
+  </si>
+  <si>
+    <t>CHI1251697-CHI8539581</t>
+  </si>
+  <si>
+    <t>SGNV59661300</t>
+  </si>
+  <si>
+    <t>TLLU5494134</t>
+  </si>
+  <si>
+    <t>CHI1251698-CHI8539319</t>
+  </si>
+  <si>
+    <t>TCLU6269947</t>
+  </si>
+  <si>
+    <t>CHI1251699-CHI8539337</t>
+  </si>
+  <si>
+    <t>SZPV62315334</t>
+  </si>
+  <si>
+    <t>NYKU4203047</t>
+  </si>
+  <si>
+    <t>CHI1251714-CHI8539566</t>
+  </si>
+  <si>
+    <t>SGNV58951400</t>
+  </si>
+  <si>
+    <t>ONEU0063453</t>
+  </si>
+  <si>
+    <t>CHI1251714-CHI8539555</t>
+  </si>
+  <si>
+    <t>SGNV58745500</t>
+  </si>
+  <si>
+    <t>FSCU9971135</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539374</t>
+  </si>
+  <si>
+    <t>SZPV62315309</t>
+  </si>
+  <si>
+    <t>DRYU4054625</t>
+  </si>
+  <si>
+    <t>CHI1252162-CHI8544466</t>
+  </si>
+  <si>
+    <t>MOTU5809815</t>
+  </si>
+  <si>
+    <t>CHI1251638-CHI8539324</t>
+  </si>
+  <si>
+    <t>SH9FB9402700</t>
+  </si>
+  <si>
+    <t>TCLU6290902</t>
+  </si>
+  <si>
+    <t>CHI1251658-CHI8539376</t>
+  </si>
+  <si>
+    <t>KKFU8037730</t>
+  </si>
+  <si>
+    <t>CHI1251660-CHI8539583</t>
+  </si>
+  <si>
+    <t>SGNV59887600</t>
+  </si>
+  <si>
+    <t>DRYU9945818</t>
+  </si>
+  <si>
+    <t>CHI1251688-CHI8539367</t>
+  </si>
+  <si>
+    <t>SZPV62315317</t>
+  </si>
+  <si>
+    <t>DRYU6054291</t>
+  </si>
+  <si>
+    <t>CHI1251714-CHI8539591</t>
+  </si>
+  <si>
+    <t>SGNV61382300</t>
+  </si>
+  <si>
+    <t>NYKU4728523</t>
+  </si>
+  <si>
+    <t>CHI1251716-CHI8539346</t>
+  </si>
+  <si>
+    <t>BEAU4428972</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539419</t>
+  </si>
+  <si>
+    <t>TCLU6333049</t>
+  </si>
+  <si>
+    <t>CHI1251727-CHI8539587</t>
+  </si>
+  <si>
+    <t>SGNV61006300</t>
+  </si>
+  <si>
     <t>NYKU4797967</t>
   </si>
   <si>
@@ -185,6 +647,81 @@
     <t>HKGV74449400</t>
   </si>
   <si>
+    <t>TLLU5678110</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539452</t>
+  </si>
+  <si>
+    <t>SZPV60267703</t>
+  </si>
+  <si>
+    <t>TGHU6956583</t>
+  </si>
+  <si>
+    <t>CHI1250956-CHI8539598</t>
+  </si>
+  <si>
+    <t>SGNV43253700</t>
+  </si>
+  <si>
+    <t>MOTU1405034</t>
+  </si>
+  <si>
+    <t>CHI1250955-CHI8539599</t>
+  </si>
+  <si>
+    <t>SGNV46934900</t>
+  </si>
+  <si>
+    <t>KKFU7761289</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539300</t>
+  </si>
+  <si>
+    <t>SH9KB3418400</t>
+  </si>
+  <si>
+    <t>NYKU4112440</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539314</t>
+  </si>
+  <si>
+    <t>NYKU5188986</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539307</t>
+  </si>
+  <si>
+    <t>SH9FV1921700</t>
+  </si>
+  <si>
+    <t>CAIU9037846</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539310</t>
+  </si>
+  <si>
+    <t>SH9FV1928700</t>
+  </si>
+  <si>
+    <t>NYKU0718070</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539411</t>
+  </si>
+  <si>
+    <t>TCNU4832787</t>
+  </si>
+  <si>
+    <t>CHI1251080-CHI8539384</t>
+  </si>
+  <si>
+    <t>SZPV62897400</t>
+  </si>
+  <si>
     <t>NYKU5206863</t>
   </si>
   <si>
@@ -224,15 +761,6 @@
     <t>CHI1247111-CHI8510255</t>
   </si>
   <si>
-    <t>CAIU9440316</t>
-  </si>
-  <si>
-    <t>CHI1243981-CHI8491940</t>
-  </si>
-  <si>
-    <t>BKKV60927400</t>
-  </si>
-  <si>
     <t>CAIU9134661</t>
   </si>
   <si>
@@ -251,22 +779,28 @@
     <t>NB9IA1793500</t>
   </si>
   <si>
-    <t>TCLU8274979</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492564</t>
-  </si>
-  <si>
-    <t>FOCV03820600</t>
-  </si>
-  <si>
-    <t>TTNU3585330</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492557</t>
-  </si>
-  <si>
-    <t>XMNV31836700</t>
+    <t>TCLU8332118</t>
+  </si>
+  <si>
+    <t>CHI1251664-CHI8539585</t>
+  </si>
+  <si>
+    <t>SGNV60042900</t>
+  </si>
+  <si>
+    <t>TCLU7965277</t>
+  </si>
+  <si>
+    <t>CHI1251666-CHI8539321</t>
+  </si>
+  <si>
+    <t>TCNU7525911</t>
+  </si>
+  <si>
+    <t>CHI1251688-CHI8539370</t>
+  </si>
+  <si>
+    <t>SZPV62315314</t>
   </si>
   <si>
     <t>TCNU5558156</t>
@@ -278,22 +812,67 @@
     <t>LCBV09230400</t>
   </si>
   <si>
-    <t>KKFU7745499</t>
-  </si>
-  <si>
-    <t>CHI1244090-CHI8492767</t>
-  </si>
-  <si>
-    <t>FOCV03804800</t>
-  </si>
-  <si>
-    <t>TCKU4651439</t>
-  </si>
-  <si>
-    <t>CHI1244093-CHI8492769</t>
-  </si>
-  <si>
-    <t>XMNV28018500</t>
+    <t>KKFU7808771</t>
+  </si>
+  <si>
+    <t>CHI1251660-CHI8539565</t>
+  </si>
+  <si>
+    <t>SEGU4053965</t>
+  </si>
+  <si>
+    <t>CHI1251714-CHI8539557</t>
+  </si>
+  <si>
+    <t>SGNV58751900</t>
+  </si>
+  <si>
+    <t>NYKU4397889</t>
+  </si>
+  <si>
+    <t>CHI1251716-CHI8539348</t>
+  </si>
+  <si>
+    <t>KKFU8058265</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539342</t>
+  </si>
+  <si>
+    <t>TCLU7907645</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539369</t>
+  </si>
+  <si>
+    <t>SZPV62315315</t>
+  </si>
+  <si>
+    <t>KKFU8089878</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539361</t>
+  </si>
+  <si>
+    <t>SZPV62315323</t>
+  </si>
+  <si>
+    <t>TCLU8865098</t>
+  </si>
+  <si>
+    <t>CHI1251727-CHI8539572</t>
+  </si>
+  <si>
+    <t>SGNV59069500</t>
+  </si>
+  <si>
+    <t>TCNU5527999</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539357</t>
+  </si>
+  <si>
+    <t>SZPV62315327</t>
   </si>
   <si>
     <t>NYKU4834510</t>
@@ -338,34 +917,127 @@
     <t>CHI1248014-CHI8515632</t>
   </si>
   <si>
-    <t>HJMU4414845</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492563</t>
-  </si>
-  <si>
-    <t>XMNV27563900</t>
-  </si>
-  <si>
-    <t>TCKU4377740</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492559</t>
-  </si>
-  <si>
-    <t>XMNV27661800</t>
-  </si>
-  <si>
-    <t>FDCU0391820</t>
-  </si>
-  <si>
-    <t>MOL MAXIM</t>
-  </si>
-  <si>
-    <t>CHI1243016-CHI8487750</t>
-  </si>
-  <si>
-    <t>LY8RZ0052600</t>
+    <t>NYKU4881661</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539451</t>
+  </si>
+  <si>
+    <t>SZPV60267704</t>
+  </si>
+  <si>
+    <t>DRYU6084589</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539448</t>
+  </si>
+  <si>
+    <t>SZPV60267707</t>
+  </si>
+  <si>
+    <t>TRLU7496570</t>
+  </si>
+  <si>
+    <t>CHI1250890-CHI8539562</t>
+  </si>
+  <si>
+    <t>SGNV58774700</t>
+  </si>
+  <si>
+    <t>MOEU0603818</t>
+  </si>
+  <si>
+    <t>CHI1250896-CHI8539455</t>
+  </si>
+  <si>
+    <t>SZPV60267727</t>
+  </si>
+  <si>
+    <t>KKFU9160651</t>
+  </si>
+  <si>
+    <t>CHI1250896-CHI8539454</t>
+  </si>
+  <si>
+    <t>SZPV60267728</t>
+  </si>
+  <si>
+    <t>NYKU4204824</t>
+  </si>
+  <si>
+    <t>CHI1250899-CHI8539330</t>
+  </si>
+  <si>
+    <t>SH9FK4261500</t>
+  </si>
+  <si>
+    <t>TCLU4861807</t>
+  </si>
+  <si>
+    <t>CHI1250912-CHI8539584</t>
+  </si>
+  <si>
+    <t>SGNV60334600</t>
+  </si>
+  <si>
+    <t>GESU6204990</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539428</t>
+  </si>
+  <si>
+    <t>MOFU5805055</t>
+  </si>
+  <si>
+    <t>CHI1250973-CHI8539296</t>
+  </si>
+  <si>
+    <t>SH9KJ0985900</t>
+  </si>
+  <si>
+    <t>KKFU1844447</t>
+  </si>
+  <si>
+    <t>CHI1250974-CHI8539408</t>
+  </si>
+  <si>
+    <t>TTNU5087444</t>
+  </si>
+  <si>
+    <t>CHI1250973-CHI8539298</t>
+  </si>
+  <si>
+    <t>MOFU0624326</t>
+  </si>
+  <si>
+    <t>CHI1250974-CHI8539407</t>
+  </si>
+  <si>
+    <t>KKFU7931451</t>
+  </si>
+  <si>
+    <t>CHI1250975-CHI8539552</t>
+  </si>
+  <si>
+    <t>SH9FB9400500</t>
+  </si>
+  <si>
+    <t>TLLU5440380</t>
+  </si>
+  <si>
+    <t>CHI1250982-CHI8539378</t>
+  </si>
+  <si>
+    <t>SZPV62315303</t>
+  </si>
+  <si>
+    <t>TEMU8049450</t>
+  </si>
+  <si>
+    <t>CHI1250988-CHI8539400</t>
+  </si>
+  <si>
+    <t>SZPV59438800</t>
   </si>
   <si>
     <t>NYKU5926020</t>
@@ -377,6 +1049,57 @@
     <t>NB8BHB195800</t>
   </si>
   <si>
+    <t>NYKU5758013</t>
+  </si>
+  <si>
+    <t>CHI1250917-CHI8539389</t>
+  </si>
+  <si>
+    <t>SEGU5862028</t>
+  </si>
+  <si>
+    <t>CHI1250929-CHI8539475</t>
+  </si>
+  <si>
+    <t>HKGV80575813</t>
+  </si>
+  <si>
+    <t>TCNU6658885</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539335</t>
+  </si>
+  <si>
+    <t>SH9KJ1233300</t>
+  </si>
+  <si>
+    <t>TCNU8407908</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539332</t>
+  </si>
+  <si>
+    <t>SH9KJ1212700</t>
+  </si>
+  <si>
+    <t>TLLU5710336</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539414</t>
+  </si>
+  <si>
+    <t>ONEU0119146</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539413</t>
+  </si>
+  <si>
+    <t>ONEU0144473</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539406</t>
+  </si>
+  <si>
     <t>BMOU4026896</t>
   </si>
   <si>
@@ -386,6 +1109,57 @@
     <t>NB9IB1782400</t>
   </si>
   <si>
+    <t>FDCU0392616</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539464</t>
+  </si>
+  <si>
+    <t>TCNU8191315</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539469</t>
+  </si>
+  <si>
+    <t>HKGV80575806</t>
+  </si>
+  <si>
+    <t>TCKU4205308</t>
+  </si>
+  <si>
+    <t>CHI1250973-CHI8539297</t>
+  </si>
+  <si>
+    <t>TCLU4705759</t>
+  </si>
+  <si>
+    <t>CHI1250974-CHI8539410</t>
+  </si>
+  <si>
+    <t>BEAU4439088</t>
+  </si>
+  <si>
+    <t>CHI1251080-CHI8539383</t>
+  </si>
+  <si>
+    <t>SZPV62879400</t>
+  </si>
+  <si>
+    <t>KKFU7388088</t>
+  </si>
+  <si>
+    <t>CHI1252131-CHI8544278</t>
+  </si>
+  <si>
+    <t>SGNV55039500</t>
+  </si>
+  <si>
+    <t>TLLU5648461</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539415</t>
+  </si>
+  <si>
     <t>TCNU4104863</t>
   </si>
   <si>
@@ -464,34 +1238,175 @@
     <t>MUMV33942800</t>
   </si>
   <si>
-    <t>TEMU0173681</t>
-  </si>
-  <si>
-    <t>CHI1244090-CHI8492772</t>
-  </si>
-  <si>
-    <t>XMNV29327900</t>
-  </si>
-  <si>
-    <t>BEAU4423707</t>
-  </si>
-  <si>
-    <t>CHI1244092-CHI8492764</t>
-  </si>
-  <si>
-    <t>KKFU8023593</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492562</t>
-  </si>
-  <si>
-    <t>TCLU6359608</t>
-  </si>
-  <si>
-    <t>CHI1244147-CHI8493043</t>
-  </si>
-  <si>
-    <t>LCBV07963800</t>
+    <t>KKFU7968656</t>
+  </si>
+  <si>
+    <t>CHI1252162-CHI8544469</t>
+  </si>
+  <si>
+    <t>TLLU5509790</t>
+  </si>
+  <si>
+    <t>CHI1252162-CHI8544470</t>
+  </si>
+  <si>
+    <t>TCLU9458585</t>
+  </si>
+  <si>
+    <t>CHI1251630-CHI8539338</t>
+  </si>
+  <si>
+    <t>AMFU8888078</t>
+  </si>
+  <si>
+    <t>CHI1251631-CHI8539323</t>
+  </si>
+  <si>
+    <t>TEMU8839959</t>
+  </si>
+  <si>
+    <t>CHI1251637-CHI8539568</t>
+  </si>
+  <si>
+    <t>SGNV59299300</t>
+  </si>
+  <si>
+    <t>DFSU6575583</t>
+  </si>
+  <si>
+    <t>CHI1250883-CHI8539482</t>
+  </si>
+  <si>
+    <t>SGNV58231900</t>
+  </si>
+  <si>
+    <t>NYKU5748680</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539427</t>
+  </si>
+  <si>
+    <t>KKFU9156883</t>
+  </si>
+  <si>
+    <t>CHI1250929-CHI8539477</t>
+  </si>
+  <si>
+    <t>TCLU6270383</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539470</t>
+  </si>
+  <si>
+    <t>KKFU7629987</t>
+  </si>
+  <si>
+    <t>CHI1250976-CHI8539595</t>
+  </si>
+  <si>
+    <t>TCNU2454862</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539449</t>
+  </si>
+  <si>
+    <t>SZPV60267706</t>
+  </si>
+  <si>
+    <t>MOTU6710093</t>
+  </si>
+  <si>
+    <t>CHI1250883-CHI8539600</t>
+  </si>
+  <si>
+    <t>SGNV37631300</t>
+  </si>
+  <si>
+    <t>TCLU8545941</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539471</t>
+  </si>
+  <si>
+    <t>TCLU5359753</t>
+  </si>
+  <si>
+    <t>CHI1251629-CHI8539553</t>
+  </si>
+  <si>
+    <t>SGNV58707300</t>
+  </si>
+  <si>
+    <t>TCNU7781148</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539299</t>
+  </si>
+  <si>
+    <t>NYKU4267313</t>
+  </si>
+  <si>
+    <t>CHI1251636-CHI8539356</t>
+  </si>
+  <si>
+    <t>SZPV62315331</t>
+  </si>
+  <si>
+    <t>TCLU9648517</t>
+  </si>
+  <si>
+    <t>CHI1251636-CHI8539363</t>
+  </si>
+  <si>
+    <t>SZPV62315321</t>
+  </si>
+  <si>
+    <t>KKFU7279976</t>
+  </si>
+  <si>
+    <t>CHI1251637-CHI8539571</t>
+  </si>
+  <si>
+    <t>DRYU9291553</t>
+  </si>
+  <si>
+    <t>CHI1251658-CHI8539379</t>
+  </si>
+  <si>
+    <t>TCNU8061158</t>
+  </si>
+  <si>
+    <t>CHI1251660-CHI8539559</t>
+  </si>
+  <si>
+    <t>SGNV58763500</t>
+  </si>
+  <si>
+    <t>TGCU0227708</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539345</t>
+  </si>
+  <si>
+    <t>NYKU4028406</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539355</t>
+  </si>
+  <si>
+    <t>TEMU8722216</t>
+  </si>
+  <si>
+    <t>CHI1251716-CHI8539421</t>
+  </si>
+  <si>
+    <t>SZPV62315356</t>
+  </si>
+  <si>
+    <t>TLLU5531500</t>
+  </si>
+  <si>
+    <t>CHI1252162-CHI8544467</t>
   </si>
   <si>
     <t>TCLU8481507</t>
@@ -509,6 +1424,33 @@
     <t>NB8BHE700300</t>
   </si>
   <si>
+    <t>TCLU7290743</t>
+  </si>
+  <si>
+    <t>CHI1250861-CHI8539381</t>
+  </si>
+  <si>
+    <t>SZPV62318600</t>
+  </si>
+  <si>
+    <t>DRYU6090405</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539434</t>
+  </si>
+  <si>
+    <t>SZPV60267721</t>
+  </si>
+  <si>
+    <t>TCLU8929464</t>
+  </si>
+  <si>
+    <t>CHI1250883-CHI8539601</t>
+  </si>
+  <si>
+    <t>SGNV37633500</t>
+  </si>
+  <si>
     <t>ONEU0118793</t>
   </si>
   <si>
@@ -521,6 +1463,114 @@
     <t>CHI1248016-CHI8515606</t>
   </si>
   <si>
+    <t>NYKU3113519</t>
+  </si>
+  <si>
+    <t>CHI1250855-CHI8539432</t>
+  </si>
+  <si>
+    <t>SZPV60267700</t>
+  </si>
+  <si>
+    <t>CAIU9151822</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539444</t>
+  </si>
+  <si>
+    <t>SZPV60267711</t>
+  </si>
+  <si>
+    <t>TGBU5101468</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539445</t>
+  </si>
+  <si>
+    <t>SZPV60267710</t>
+  </si>
+  <si>
+    <t>TRLU7564205</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539439</t>
+  </si>
+  <si>
+    <t>SZPV60267716</t>
+  </si>
+  <si>
+    <t>TCNU6559820</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539440</t>
+  </si>
+  <si>
+    <t>SZPV60267715</t>
+  </si>
+  <si>
+    <t>BEAU4618519</t>
+  </si>
+  <si>
+    <t>CHI1250890-CHI8539567</t>
+  </si>
+  <si>
+    <t>SGNV58944600</t>
+  </si>
+  <si>
+    <t>KKFU7731957</t>
+  </si>
+  <si>
+    <t>CHI1250890-CHI8539588</t>
+  </si>
+  <si>
+    <t>SGNV61010500</t>
+  </si>
+  <si>
+    <t>TGHU6774510</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539425</t>
+  </si>
+  <si>
+    <t>NYKU5112682</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539426</t>
+  </si>
+  <si>
+    <t>BSIU9658427</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539423</t>
+  </si>
+  <si>
+    <t>BSIU9597168</t>
+  </si>
+  <si>
+    <t>CHI1250917-CHI8539481</t>
+  </si>
+  <si>
+    <t>ONEU7031720</t>
+  </si>
+  <si>
+    <t>CHI1250929-CHI8539474</t>
+  </si>
+  <si>
+    <t>NYKU4269240</t>
+  </si>
+  <si>
+    <t>CHI1250965-CHI8539292</t>
+  </si>
+  <si>
+    <t>HKGV58544900</t>
+  </si>
+  <si>
+    <t>KKFU1712100</t>
+  </si>
+  <si>
+    <t>CHI1251029-CHI8539596</t>
+  </si>
+  <si>
     <t>BSIU9816498</t>
   </si>
   <si>
@@ -530,12 +1580,6 @@
     <t>TUTV06483900</t>
   </si>
   <si>
-    <t>TCLU9542192</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492561</t>
-  </si>
-  <si>
     <t>MOEU1415271</t>
   </si>
   <si>
@@ -557,34 +1601,274 @@
     <t>CHI1248004-CHI8515629</t>
   </si>
   <si>
-    <t>NYKU8456640</t>
-  </si>
-  <si>
-    <t>CHI1243016-CHI8487749</t>
-  </si>
-  <si>
-    <t>TLLU5680479</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492558</t>
-  </si>
-  <si>
-    <t>BMOU5386623</t>
-  </si>
-  <si>
-    <t>CHI1244147-CHI8493044</t>
-  </si>
-  <si>
-    <t>KKFU9121608</t>
-  </si>
-  <si>
-    <t>CHI1244093-CHI8492770</t>
-  </si>
-  <si>
-    <t>FDCU0388750</t>
-  </si>
-  <si>
-    <t>CHI1244147-CHI8493042</t>
+    <t>TGBU5310241</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539435</t>
+  </si>
+  <si>
+    <t>SZPV60267720</t>
+  </si>
+  <si>
+    <t>TTNU5311960</t>
+  </si>
+  <si>
+    <t>CHI1250973-CHI8539318</t>
+  </si>
+  <si>
+    <t>SH9KB3433800</t>
+  </si>
+  <si>
+    <t>NYKU3336446</t>
+  </si>
+  <si>
+    <t>CHI1251002-CHI8539315</t>
+  </si>
+  <si>
+    <t>SH9KJ1074600</t>
+  </si>
+  <si>
+    <t>SEGU5176028</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539309</t>
+  </si>
+  <si>
+    <t>NYKU5658415</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539312</t>
+  </si>
+  <si>
+    <t>NYKU4258292</t>
+  </si>
+  <si>
+    <t>CHI1251636-CHI8539340</t>
+  </si>
+  <si>
+    <t>DRYU9108600</t>
+  </si>
+  <si>
+    <t>CHI1251658-CHI8539377</t>
+  </si>
+  <si>
+    <t>KKFU7472347</t>
+  </si>
+  <si>
+    <t>CHI1251665-CHI8539359</t>
+  </si>
+  <si>
+    <t>SZPV62315325</t>
+  </si>
+  <si>
+    <t>CLHU9015868</t>
+  </si>
+  <si>
+    <t>CHI1251687-CHI8539569</t>
+  </si>
+  <si>
+    <t>SGNV59012700</t>
+  </si>
+  <si>
+    <t>CAIU9371410</t>
+  </si>
+  <si>
+    <t>CHI1251688-CHI8539368</t>
+  </si>
+  <si>
+    <t>SZPV62315316</t>
+  </si>
+  <si>
+    <t>TRLU7473804</t>
+  </si>
+  <si>
+    <t>CHI1251688-CHI8539353</t>
+  </si>
+  <si>
+    <t>CXDU1661840</t>
+  </si>
+  <si>
+    <t>CHI1251726-CHI8539350</t>
+  </si>
+  <si>
+    <t>KKFU7341389</t>
+  </si>
+  <si>
+    <t>CHI1251629-CHI8539582</t>
+  </si>
+  <si>
+    <t>TCNU6966790</t>
+  </si>
+  <si>
+    <t>CHI1251630-CHI8539362</t>
+  </si>
+  <si>
+    <t>SZPV62315322</t>
+  </si>
+  <si>
+    <t>KKFU8134128</t>
+  </si>
+  <si>
+    <t>CHI1251636-CHI8539336</t>
+  </si>
+  <si>
+    <t>KKFU7566343</t>
+  </si>
+  <si>
+    <t>CHI1251636-CHI8539343</t>
+  </si>
+  <si>
+    <t>TCNU3371994</t>
+  </si>
+  <si>
+    <t>CHI1251658-CHI8539349</t>
+  </si>
+  <si>
+    <t>NYKU0772385</t>
+  </si>
+  <si>
+    <t>CHI1251666-CHI8539320</t>
+  </si>
+  <si>
+    <t>TCLU9339077</t>
+  </si>
+  <si>
+    <t>CHI1251687-CHI8539589</t>
+  </si>
+  <si>
+    <t>SGNV61016400</t>
+  </si>
+  <si>
+    <t>KKFU7936962</t>
+  </si>
+  <si>
+    <t>CHI1251688-CHI8539341</t>
+  </si>
+  <si>
+    <t>BSIU9782654</t>
+  </si>
+  <si>
+    <t>CHI1251697-CHI8539577</t>
+  </si>
+  <si>
+    <t>SEGU5942247</t>
+  </si>
+  <si>
+    <t>CHI1250929-CHI8539473</t>
+  </si>
+  <si>
+    <t>DRYU9369498</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539463</t>
+  </si>
+  <si>
+    <t>HKGV80575809</t>
+  </si>
+  <si>
+    <t>DRYU9226748</t>
+  </si>
+  <si>
+    <t>CHI1251727-CHI8539574</t>
+  </si>
+  <si>
+    <t>KKFU1838640</t>
+  </si>
+  <si>
+    <t>CHI1250973-CHI8539317</t>
+  </si>
+  <si>
+    <t>NYKU4788630</t>
+  </si>
+  <si>
+    <t>CHI1251040-CHI8539592</t>
+  </si>
+  <si>
+    <t>SGNV57319800</t>
+  </si>
+  <si>
+    <t>TLLU4220355</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539443</t>
+  </si>
+  <si>
+    <t>SZPV60267712</t>
+  </si>
+  <si>
+    <t>TGCU0211960</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539453</t>
+  </si>
+  <si>
+    <t>SZPV60267702</t>
+  </si>
+  <si>
+    <t>KKFU7705475</t>
+  </si>
+  <si>
+    <t>CHI1252131-CHI8544279</t>
+  </si>
+  <si>
+    <t>SGNV55042600</t>
+  </si>
+  <si>
+    <t>TRLU7525148</t>
+  </si>
+  <si>
+    <t>CHI1252131-CHI8544275</t>
+  </si>
+  <si>
+    <t>SGNV53551900</t>
+  </si>
+  <si>
+    <t>TLLU6146410</t>
+  </si>
+  <si>
+    <t>CHI1252162-CHI8544473</t>
+  </si>
+  <si>
+    <t>TCLU1496634</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539433</t>
+  </si>
+  <si>
+    <t>SZPV60267722</t>
+  </si>
+  <si>
+    <t>TCNU7153584</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539441</t>
+  </si>
+  <si>
+    <t>SZPV60267714</t>
+  </si>
+  <si>
+    <t>KKFU7532929</t>
+  </si>
+  <si>
+    <t>CHI1250890-CHI8539575</t>
+  </si>
+  <si>
+    <t>SGNV59308800</t>
+  </si>
+  <si>
+    <t>SEGU5918889</t>
+  </si>
+  <si>
+    <t>CHI1250896-CHI8539456</t>
+  </si>
+  <si>
+    <t>SZPV60267726</t>
+  </si>
+  <si>
+    <t>TCLU8945470</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539431</t>
   </si>
   <si>
     <t>KKFU7765978</t>
@@ -596,6 +1880,174 @@
     <t>NB8BHB185700</t>
   </si>
   <si>
+    <t>TCNU6727311</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539447</t>
+  </si>
+  <si>
+    <t>SZPV60267708</t>
+  </si>
+  <si>
+    <t>CXDU1671339</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539450</t>
+  </si>
+  <si>
+    <t>SZPV60267705</t>
+  </si>
+  <si>
+    <t>KKFU7873078</t>
+  </si>
+  <si>
+    <t>CHI1250917-CHI8539392</t>
+  </si>
+  <si>
+    <t>NYKU4628118</t>
+  </si>
+  <si>
+    <t>CHI1250929-CHI8539479</t>
+  </si>
+  <si>
+    <t>TEMU5115250</t>
+  </si>
+  <si>
+    <t>CHI1251001-CHI8539398</t>
+  </si>
+  <si>
+    <t>SZPV58101800</t>
+  </si>
+  <si>
+    <t>NYKU4074084</t>
+  </si>
+  <si>
+    <t>CHI1250882-CHI8539438</t>
+  </si>
+  <si>
+    <t>SZPV60267717</t>
+  </si>
+  <si>
+    <t>TCNU4965537</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539311</t>
+  </si>
+  <si>
+    <t>TCNU7930730</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539306</t>
+  </si>
+  <si>
+    <t>TLLU5540630</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539316</t>
+  </si>
+  <si>
+    <t>TEMU7096210</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539334</t>
+  </si>
+  <si>
+    <t>KKFU7663220</t>
+  </si>
+  <si>
+    <t>CHI1251658-CHI8539412</t>
+  </si>
+  <si>
+    <t>TCLU9713398</t>
+  </si>
+  <si>
+    <t>CHI1250917-CHI8539393</t>
+  </si>
+  <si>
+    <t>TEMU7412197</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539430</t>
+  </si>
+  <si>
+    <t>KKFU7848331</t>
+  </si>
+  <si>
+    <t>CHI1250917-CHI8539390</t>
+  </si>
+  <si>
+    <t>TLLU5638740</t>
+  </si>
+  <si>
+    <t>CHI1250917-CHI8539391</t>
+  </si>
+  <si>
+    <t>ONEU7046329</t>
+  </si>
+  <si>
+    <t>CHI1250929-CHI8539476</t>
+  </si>
+  <si>
+    <t>CAIU5828962</t>
+  </si>
+  <si>
+    <t>CHI1250929-CHI8539478</t>
+  </si>
+  <si>
+    <t>TCNU5309425</t>
+  </si>
+  <si>
+    <t>CHI1251716-CHI8539371</t>
+  </si>
+  <si>
+    <t>SZPV62315313</t>
+  </si>
+  <si>
+    <t>TEMU8715562</t>
+  </si>
+  <si>
+    <t>CHI1251716-CHI8539365</t>
+  </si>
+  <si>
+    <t>SZPV62315319</t>
+  </si>
+  <si>
+    <t>NYKU4338269</t>
+  </si>
+  <si>
+    <t>CHI1251716-CHI8539351</t>
+  </si>
+  <si>
+    <t>TCLU8879240</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539466</t>
+  </si>
+  <si>
+    <t>FSCU8543744</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539467</t>
+  </si>
+  <si>
+    <t>NYKU5931582</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539462</t>
+  </si>
+  <si>
+    <t>TCNU8035740</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539465</t>
+  </si>
+  <si>
+    <t>TTNU4995637</t>
+  </si>
+  <si>
+    <t>CHI1250946-CHI8539461</t>
+  </si>
+  <si>
     <t>CXDU1207288</t>
   </si>
   <si>
@@ -614,6 +2066,120 @@
     <t>NB8BHB198400</t>
   </si>
   <si>
+    <t>TCLU4670570</t>
+  </si>
+  <si>
+    <t>CHI1250973-CHI8539304</t>
+  </si>
+  <si>
+    <t>MOFU6741850</t>
+  </si>
+  <si>
+    <t>CHI1250973-CHI8539303</t>
+  </si>
+  <si>
+    <t>TCLU4216362</t>
+  </si>
+  <si>
+    <t>CHI1250974-CHI8539399</t>
+  </si>
+  <si>
+    <t>SZPV58137300</t>
+  </si>
+  <si>
+    <t>BEAU4621240</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539305</t>
+  </si>
+  <si>
+    <t>BMOU5272791</t>
+  </si>
+  <si>
+    <t>CHI1251629-CHI8539561</t>
+  </si>
+  <si>
+    <t>SGNV58764600</t>
+  </si>
+  <si>
+    <t>KKFU7878038</t>
+  </si>
+  <si>
+    <t>CHI1251629-CHI8539560</t>
+  </si>
+  <si>
+    <t>TCLU8548745</t>
+  </si>
+  <si>
+    <t>CHI1250890-CHI8539556</t>
+  </si>
+  <si>
+    <t>TCNU9630114</t>
+  </si>
+  <si>
+    <t>CHI1250916-CHI8539429</t>
+  </si>
+  <si>
+    <t>TCLU9339082</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539313</t>
+  </si>
+  <si>
+    <t>TEMU8724060</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539301</t>
+  </si>
+  <si>
+    <t>SH9KB3419500</t>
+  </si>
+  <si>
+    <t>TCNU4900177</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539294</t>
+  </si>
+  <si>
+    <t>NYKU0761138</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539416</t>
+  </si>
+  <si>
+    <t>DRYU9974586</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539402</t>
+  </si>
+  <si>
+    <t>TCLU5459583</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539404</t>
+  </si>
+  <si>
+    <t>KKFU7558950</t>
+  </si>
+  <si>
+    <t>CHI1251637-CHI8539558</t>
+  </si>
+  <si>
+    <t>SGNV58759300</t>
+  </si>
+  <si>
+    <t>TEMU7203772</t>
+  </si>
+  <si>
+    <t>CHI1251638-CHI8539325</t>
+  </si>
+  <si>
+    <t>KKFU8084773</t>
+  </si>
+  <si>
+    <t>CHI1251658-CHI8539352</t>
+  </si>
+  <si>
     <t>NYKU4927464</t>
   </si>
   <si>
@@ -623,6 +2189,51 @@
     <t>BDOV03439500</t>
   </si>
   <si>
+    <t>TCNU4349070</t>
+  </si>
+  <si>
+    <t>CHI1250939-CHI8539468</t>
+  </si>
+  <si>
+    <t>CAIU4009380</t>
+  </si>
+  <si>
+    <t>CHI1250946-CHI8539459</t>
+  </si>
+  <si>
+    <t>NYKU5986883</t>
+  </si>
+  <si>
+    <t>CHI1250945-CHI8539394</t>
+  </si>
+  <si>
+    <t>SZPV48589600</t>
+  </si>
+  <si>
+    <t>FDCU0370670</t>
+  </si>
+  <si>
+    <t>CHI1251659-CHI8539327</t>
+  </si>
+  <si>
+    <t>FSCU9843113</t>
+  </si>
+  <si>
+    <t>CHI1251664-CHI8539590</t>
+  </si>
+  <si>
+    <t>SGNV61054600</t>
+  </si>
+  <si>
+    <t>NYKU5186258</t>
+  </si>
+  <si>
+    <t>CHI1251699-CHI8539358</t>
+  </si>
+  <si>
+    <t>SZPV62315326</t>
+  </si>
+  <si>
     <t>TTNU3928418</t>
   </si>
   <si>
@@ -638,10 +2249,112 @@
     <t>SGNV36119300</t>
   </si>
   <si>
-    <t>MOFU5847810</t>
-  </si>
-  <si>
-    <t>CHI1244093-CHI8492768</t>
+    <t>KKFU7729590</t>
+  </si>
+  <si>
+    <t>CHI1251040-CHI8539593</t>
+  </si>
+  <si>
+    <t>NYKU2949253</t>
+  </si>
+  <si>
+    <t>CHI1251048-CHI8539329</t>
+  </si>
+  <si>
+    <t>SH9FT8435500</t>
+  </si>
+  <si>
+    <t>TRLU7441730</t>
+  </si>
+  <si>
+    <t>CHI1251658-CHI8539344</t>
+  </si>
+  <si>
+    <t>NYKU5231803</t>
+  </si>
+  <si>
+    <t>CHI1251660-CHI8539579</t>
+  </si>
+  <si>
+    <t>SGNV59650800</t>
+  </si>
+  <si>
+    <t>TCLU8844496</t>
+  </si>
+  <si>
+    <t>CHI1251665-CHI8539372</t>
+  </si>
+  <si>
+    <t>TCLU7817500</t>
+  </si>
+  <si>
+    <t>CHI1251666-CHI8539326</t>
+  </si>
+  <si>
+    <t>TCLU7825336</t>
+  </si>
+  <si>
+    <t>CHI1251699-CHI8539354</t>
+  </si>
+  <si>
+    <t>TCLU6289970</t>
+  </si>
+  <si>
+    <t>CHI1251697-CHI8539576</t>
+  </si>
+  <si>
+    <t>DRYU9198040</t>
+  </si>
+  <si>
+    <t>CHI1251699-CHI8539380</t>
+  </si>
+  <si>
+    <t>TCLU8948850</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539302</t>
+  </si>
+  <si>
+    <t>NYKU4882098</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539331</t>
+  </si>
+  <si>
+    <t>TGHU9746298</t>
+  </si>
+  <si>
+    <t>CHI1251080-CHI8539386</t>
+  </si>
+  <si>
+    <t>SZPV62911500</t>
+  </si>
+  <si>
+    <t>TRLU7496688</t>
+  </si>
+  <si>
+    <t>CHI1251080-CHI8539387</t>
+  </si>
+  <si>
+    <t>SZPV62916300</t>
+  </si>
+  <si>
+    <t>NYKU4884320</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539333</t>
+  </si>
+  <si>
+    <t>BSIU9784620</t>
+  </si>
+  <si>
+    <t>CHI1251017-CHI8539308</t>
+  </si>
+  <si>
+    <t>TCNU4108257</t>
+  </si>
+  <si>
+    <t>CHI1251020-CHI8539396</t>
   </si>
   <si>
     <t>TCLU5692893</t>
@@ -650,12 +2363,6 @@
     <t>CHI1247822-CHI8514363</t>
   </si>
   <si>
-    <t>BSIU9675830</t>
-  </si>
-  <si>
-    <t>CHI1244043-CHI8492560</t>
-  </si>
-  <si>
     <t>SEGU5873700</t>
   </si>
   <si>
@@ -672,6 +2379,45 @@
   </si>
   <si>
     <t>NB9IB1762900</t>
+  </si>
+  <si>
+    <t>TCLU9640579</t>
+  </si>
+  <si>
+    <t>MOL PARADISE</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>CHI1251298-CHI8540771</t>
+  </si>
+  <si>
+    <t>SGNV41275900</t>
+  </si>
+  <si>
+    <t>TCLU9639942</t>
+  </si>
+  <si>
+    <t>MOL MAJESTY</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>CHI1251299-CHI8540770</t>
+  </si>
+  <si>
+    <t>SH9FB9927500</t>
+  </si>
+  <si>
+    <t>TRLU7588721</t>
+  </si>
+  <si>
+    <t>CHI1252131-CHI8544277</t>
+  </si>
+  <si>
+    <t>SGNV54129400</t>
   </si>
 </sst>
 </file>
@@ -716,7 +2462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -765,269 +2511,269 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -1035,10 +2781,10 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>63</v>
@@ -1053,10 +2799,10 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>66</v>
@@ -1071,125 +2817,125 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -1197,10 +2943,10 @@
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>89</v>
@@ -1215,35 +2961,35 @@
         <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>92</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
         <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
@@ -1251,53 +2997,53 @@
         <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
@@ -1305,10 +3051,10 @@
         <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
         <v>104</v>
@@ -1323,64 +3069,64 @@
         <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>107</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>116</v>
@@ -1395,526 +3141,526 @@
         <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -1923,70 +3669,70 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -1995,119 +3741,4223 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>219</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>237</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D81" t="s">
+        <v>240</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>248</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D88" t="s">
+        <v>259</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>260</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>266</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>267</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>269</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>272</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>275</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>276</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>278</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>279</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>281</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="s">
+        <v>282</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>284</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>285</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>51</v>
+      </c>
+      <c r="D99" t="s">
+        <v>288</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" t="s">
+        <v>51</v>
+      </c>
+      <c r="D100" t="s">
+        <v>290</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>291</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" t="s">
+        <v>292</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>293</v>
+      </c>
+      <c r="B102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>294</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>299</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>300</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>301</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>302</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>307</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" t="s">
+        <v>308</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>310</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>311</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>313</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>314</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>316</v>
+      </c>
+      <c r="B110" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" t="s">
+        <v>317</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>319</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>320</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>322</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>324</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" t="s">
+        <v>325</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>327</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>328</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>329</v>
+      </c>
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" t="s">
+        <v>330</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>331</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>332</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>333</v>
+      </c>
+      <c r="B117" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" t="s">
+        <v>334</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>336</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>337</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>340</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>342</v>
+      </c>
+      <c r="B120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" t="s">
+        <v>343</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>345</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>346</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>347</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>348</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>350</v>
+      </c>
+      <c r="B123" t="s">
+        <v>50</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" t="s">
+        <v>351</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>353</v>
+      </c>
+      <c r="B124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" t="s">
+        <v>354</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>356</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>357</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>358</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>359</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>360</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>361</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>362</v>
+      </c>
+      <c r="B128" t="s">
+        <v>50</v>
+      </c>
+      <c r="C128" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" t="s">
+        <v>363</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>365</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>366</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>367</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>368</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>370</v>
+      </c>
+      <c r="B131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>372</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>373</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>374</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>375</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>377</v>
+      </c>
+      <c r="B134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" t="s">
+        <v>378</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>380</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>381</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>382</v>
+      </c>
+      <c r="B136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C136" t="s">
+        <v>51</v>
+      </c>
+      <c r="D136" t="s">
+        <v>383</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>384</v>
+      </c>
+      <c r="B137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D137" t="s">
+        <v>385</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>386</v>
+      </c>
+      <c r="B138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" t="s">
+        <v>387</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>389</v>
+      </c>
+      <c r="B139" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>392</v>
+      </c>
+      <c r="B140" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" t="s">
+        <v>59</v>
+      </c>
+      <c r="D140" t="s">
+        <v>393</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>394</v>
+      </c>
+      <c r="B141" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141" t="s">
+        <v>395</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>397</v>
+      </c>
+      <c r="B142" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142" t="s">
+        <v>398</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" t="s">
+        <v>119</v>
+      </c>
+      <c r="C143" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" t="s">
+        <v>401</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>402</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>403</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>405</v>
+      </c>
+      <c r="B145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s">
+        <v>406</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>408</v>
+      </c>
+      <c r="B146" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" t="s">
+        <v>409</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>410</v>
+      </c>
+      <c r="B147" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" t="s">
+        <v>411</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>413</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>414</v>
+      </c>
+      <c r="B149" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" t="s">
+        <v>415</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>416</v>
+      </c>
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" t="s">
+        <v>417</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>419</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" t="s">
+        <v>420</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>422</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>423</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>424</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>425</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>426</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>427</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>428</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" t="s">
+        <v>429</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>430</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>431</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>433</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" t="s">
+        <v>434</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>436</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>437</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>438</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" t="s">
+        <v>439</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>441</v>
+      </c>
+      <c r="B160" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" t="s">
+        <v>51</v>
+      </c>
+      <c r="D160" t="s">
+        <v>442</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>443</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>444</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>446</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>447</v>
+      </c>
+      <c r="E162"/>
+      <c r="F162" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>449</v>
+      </c>
+      <c r="B163" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" t="s">
+        <v>450</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>452</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>453</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" t="s">
+        <v>454</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>456</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>457</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>458</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>459</v>
+      </c>
+      <c r="E167"/>
+      <c r="F167" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>460</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>461</v>
+      </c>
+      <c r="E168"/>
+      <c r="F168" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>463</v>
+      </c>
+      <c r="B169" t="s">
+        <v>58</v>
+      </c>
+      <c r="C169" t="s">
+        <v>59</v>
+      </c>
+      <c r="D169" t="s">
+        <v>464</v>
+      </c>
+      <c r="E169"/>
+      <c r="F169" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>465</v>
+      </c>
+      <c r="B170" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" t="s">
+        <v>51</v>
+      </c>
+      <c r="D170" t="s">
+        <v>466</v>
+      </c>
+      <c r="E170"/>
+      <c r="F170" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>467</v>
+      </c>
+      <c r="B171" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" t="s">
+        <v>468</v>
+      </c>
+      <c r="E171"/>
+      <c r="F171" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>470</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>471</v>
+      </c>
+      <c r="E172"/>
+      <c r="F172" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>473</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>474</v>
+      </c>
+      <c r="E173"/>
+      <c r="F173" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>476</v>
+      </c>
+      <c r="B174" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" t="s">
+        <v>22</v>
+      </c>
+      <c r="D174" t="s">
+        <v>477</v>
+      </c>
+      <c r="E174"/>
+      <c r="F174" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>479</v>
+      </c>
+      <c r="B175" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" t="s">
+        <v>480</v>
+      </c>
+      <c r="E175"/>
+      <c r="F175" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>481</v>
+      </c>
+      <c r="B176" t="s">
+        <v>50</v>
+      </c>
+      <c r="C176" t="s">
+        <v>51</v>
+      </c>
+      <c r="D176" t="s">
+        <v>482</v>
+      </c>
+      <c r="E176"/>
+      <c r="F176" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>483</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>484</v>
+      </c>
+      <c r="E177"/>
+      <c r="F177" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>486</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>487</v>
+      </c>
+      <c r="E178"/>
+      <c r="F178" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>489</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>490</v>
+      </c>
+      <c r="E179"/>
+      <c r="F179" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>492</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>493</v>
+      </c>
+      <c r="E180"/>
+      <c r="F180" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>495</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>496</v>
+      </c>
+      <c r="E181"/>
+      <c r="F181" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>498</v>
+      </c>
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" t="s">
+        <v>499</v>
+      </c>
+      <c r="E182"/>
+      <c r="F182" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>501</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" t="s">
+        <v>502</v>
+      </c>
+      <c r="E183"/>
+      <c r="F183" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>504</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>505</v>
+      </c>
+      <c r="E184"/>
+      <c r="F184" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>506</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>507</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>508</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>509</v>
+      </c>
+      <c r="E186"/>
+      <c r="F186" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>510</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>511</v>
+      </c>
+      <c r="E187"/>
+      <c r="F187" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>512</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>513</v>
+      </c>
+      <c r="E188"/>
+      <c r="F188" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>514</v>
+      </c>
+      <c r="B189" t="s">
+        <v>123</v>
+      </c>
+      <c r="C189" t="s">
+        <v>124</v>
+      </c>
+      <c r="D189" t="s">
+        <v>515</v>
+      </c>
+      <c r="E189"/>
+      <c r="F189" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>517</v>
+      </c>
+      <c r="B190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" t="s">
+        <v>518</v>
+      </c>
+      <c r="E190"/>
+      <c r="F190" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>519</v>
+      </c>
+      <c r="B191" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" t="s">
+        <v>520</v>
+      </c>
+      <c r="E191"/>
+      <c r="F191" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>522</v>
+      </c>
+      <c r="B192" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192" t="s">
+        <v>51</v>
+      </c>
+      <c r="D192" t="s">
+        <v>523</v>
+      </c>
+      <c r="E192"/>
+      <c r="F192" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>524</v>
+      </c>
+      <c r="B193" t="s">
+        <v>50</v>
+      </c>
+      <c r="C193" t="s">
+        <v>51</v>
+      </c>
+      <c r="D193" t="s">
+        <v>525</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>527</v>
+      </c>
+      <c r="B194" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194" t="s">
+        <v>51</v>
+      </c>
+      <c r="D194" t="s">
+        <v>528</v>
+      </c>
+      <c r="E194"/>
+      <c r="F194" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>529</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" t="s">
+        <v>530</v>
+      </c>
+      <c r="E195"/>
+      <c r="F195" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>532</v>
+      </c>
+      <c r="B196" t="s">
+        <v>50</v>
+      </c>
+      <c r="C196" t="s">
+        <v>51</v>
+      </c>
+      <c r="D196" t="s">
+        <v>533</v>
+      </c>
+      <c r="E196"/>
+      <c r="F196" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>535</v>
+      </c>
+      <c r="B197" t="s">
+        <v>50</v>
+      </c>
+      <c r="C197" t="s">
+        <v>51</v>
+      </c>
+      <c r="D197" t="s">
+        <v>536</v>
+      </c>
+      <c r="E197"/>
+      <c r="F197" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>538</v>
+      </c>
+      <c r="B198" t="s">
+        <v>50</v>
+      </c>
+      <c r="C198" t="s">
+        <v>51</v>
+      </c>
+      <c r="D198" t="s">
+        <v>539</v>
+      </c>
+      <c r="E198"/>
+      <c r="F198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>540</v>
+      </c>
+      <c r="B199" t="s">
+        <v>50</v>
+      </c>
+      <c r="C199" t="s">
+        <v>51</v>
+      </c>
+      <c r="D199" t="s">
+        <v>541</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>542</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>543</v>
+      </c>
+      <c r="E200"/>
+      <c r="F200" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>544</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" t="s">
+        <v>545</v>
+      </c>
+      <c r="E201"/>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>546</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" t="s">
+        <v>547</v>
+      </c>
+      <c r="E202"/>
+      <c r="F202" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>549</v>
+      </c>
+      <c r="B203" t="s">
+        <v>21</v>
+      </c>
+      <c r="C203" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" t="s">
+        <v>550</v>
+      </c>
+      <c r="E203"/>
+      <c r="F203" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>552</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" t="s">
+        <v>553</v>
+      </c>
+      <c r="E204"/>
+      <c r="F204" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>555</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>556</v>
+      </c>
+      <c r="E205"/>
+      <c r="F205" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>557</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" t="s">
+        <v>558</v>
+      </c>
+      <c r="E206"/>
+      <c r="F206" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>559</v>
+      </c>
+      <c r="B207" t="s">
+        <v>21</v>
+      </c>
+      <c r="C207" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207" t="s">
+        <v>560</v>
+      </c>
+      <c r="E207"/>
+      <c r="F207" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>561</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>562</v>
+      </c>
+      <c r="E208"/>
+      <c r="F208" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>564</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" t="s">
+        <v>565</v>
+      </c>
+      <c r="E209"/>
+      <c r="F209" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>566</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" t="s">
+        <v>567</v>
+      </c>
+      <c r="E210"/>
+      <c r="F210" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>568</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>569</v>
+      </c>
+      <c r="E211"/>
+      <c r="F211" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>570</v>
+      </c>
+      <c r="B212" t="s">
+        <v>50</v>
+      </c>
+      <c r="C212" t="s">
+        <v>51</v>
+      </c>
+      <c r="D212" t="s">
+        <v>571</v>
+      </c>
+      <c r="E212"/>
+      <c r="F212" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>572</v>
+      </c>
+      <c r="B213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" t="s">
+        <v>22</v>
+      </c>
+      <c r="D213" t="s">
+        <v>573</v>
+      </c>
+      <c r="E213"/>
+      <c r="F213" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>575</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" t="s">
+        <v>576</v>
+      </c>
+      <c r="E214"/>
+      <c r="F214" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>577</v>
+      </c>
+      <c r="B215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C215" t="s">
+        <v>22</v>
+      </c>
+      <c r="D215" t="s">
+        <v>578</v>
+      </c>
+      <c r="E215"/>
+      <c r="F215" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>579</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>580</v>
+      </c>
+      <c r="E216"/>
+      <c r="F216" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>581</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>582</v>
+      </c>
+      <c r="E217"/>
+      <c r="F217" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>584</v>
+      </c>
+      <c r="B218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" t="s">
+        <v>22</v>
+      </c>
+      <c r="D218" t="s">
+        <v>585</v>
+      </c>
+      <c r="E218"/>
+      <c r="F218" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>586</v>
+      </c>
+      <c r="B219" t="s">
+        <v>50</v>
+      </c>
+      <c r="C219" t="s">
+        <v>51</v>
+      </c>
+      <c r="D219" t="s">
+        <v>587</v>
+      </c>
+      <c r="E219"/>
+      <c r="F219" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>588</v>
+      </c>
+      <c r="B220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" t="s">
+        <v>22</v>
+      </c>
+      <c r="D220" t="s">
+        <v>589</v>
+      </c>
+      <c r="E220"/>
+      <c r="F220" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>591</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>592</v>
+      </c>
+      <c r="E221"/>
+      <c r="F221" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>594</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>595</v>
+      </c>
+      <c r="E222"/>
+      <c r="F222" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>597</v>
+      </c>
+      <c r="B223" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" t="s">
+        <v>22</v>
+      </c>
+      <c r="D223" t="s">
+        <v>598</v>
+      </c>
+      <c r="E223"/>
+      <c r="F223" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>600</v>
+      </c>
+      <c r="B224" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" t="s">
+        <v>22</v>
+      </c>
+      <c r="D224" t="s">
+        <v>601</v>
+      </c>
+      <c r="E224"/>
+      <c r="F224" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>603</v>
+      </c>
+      <c r="B225" t="s">
+        <v>58</v>
+      </c>
+      <c r="C225" t="s">
+        <v>59</v>
+      </c>
+      <c r="D225" t="s">
+        <v>604</v>
+      </c>
+      <c r="E225"/>
+      <c r="F225" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>605</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" t="s">
+        <v>606</v>
+      </c>
+      <c r="E226"/>
+      <c r="F226" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>608</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" t="s">
+        <v>609</v>
+      </c>
+      <c r="E227"/>
+      <c r="F227" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>611</v>
+      </c>
+      <c r="B228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" t="s">
+        <v>612</v>
+      </c>
+      <c r="E228"/>
+      <c r="F228" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>614</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>615</v>
+      </c>
+      <c r="E229"/>
+      <c r="F229" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>617</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" t="s">
+        <v>618</v>
+      </c>
+      <c r="E230"/>
+      <c r="F230" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>619</v>
+      </c>
+      <c r="B231" t="s">
+        <v>50</v>
+      </c>
+      <c r="C231" t="s">
+        <v>51</v>
+      </c>
+      <c r="D231" t="s">
+        <v>620</v>
+      </c>
+      <c r="E231"/>
+      <c r="F231" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>622</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>623</v>
+      </c>
+      <c r="E232"/>
+      <c r="F232" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>625</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" t="s">
+        <v>626</v>
+      </c>
+      <c r="E233"/>
+      <c r="F233" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>628</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" t="s">
+        <v>629</v>
+      </c>
+      <c r="E234"/>
+      <c r="F234" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>630</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" t="s">
+        <v>631</v>
+      </c>
+      <c r="E235"/>
+      <c r="F235" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>632</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" t="s">
+        <v>633</v>
+      </c>
+      <c r="E236"/>
+      <c r="F236" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>635</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" t="s">
+        <v>636</v>
+      </c>
+      <c r="E237"/>
+      <c r="F237" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>638</v>
+      </c>
+      <c r="B238" t="s">
+        <v>50</v>
+      </c>
+      <c r="C238" t="s">
+        <v>51</v>
+      </c>
+      <c r="D238" t="s">
+        <v>639</v>
+      </c>
+      <c r="E238"/>
+      <c r="F238" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>640</v>
+      </c>
+      <c r="B239" t="s">
+        <v>50</v>
+      </c>
+      <c r="C239" t="s">
+        <v>51</v>
+      </c>
+      <c r="D239" t="s">
+        <v>641</v>
+      </c>
+      <c r="E239"/>
+      <c r="F239" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>642</v>
+      </c>
+      <c r="B240" t="s">
+        <v>50</v>
+      </c>
+      <c r="C240" t="s">
+        <v>51</v>
+      </c>
+      <c r="D240" t="s">
+        <v>643</v>
+      </c>
+      <c r="E240"/>
+      <c r="F240" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>644</v>
+      </c>
+      <c r="B241" t="s">
+        <v>50</v>
+      </c>
+      <c r="C241" t="s">
+        <v>51</v>
+      </c>
+      <c r="D241" t="s">
+        <v>645</v>
+      </c>
+      <c r="E241"/>
+      <c r="F241" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>646</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>647</v>
+      </c>
+      <c r="E242"/>
+      <c r="F242" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>648</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>649</v>
+      </c>
+      <c r="E243"/>
+      <c r="F243" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>650</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>651</v>
+      </c>
+      <c r="E244"/>
+      <c r="F244" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>652</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>653</v>
+      </c>
+      <c r="E245"/>
+      <c r="F245" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>654</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" t="s">
+        <v>655</v>
+      </c>
+      <c r="E246"/>
+      <c r="F246" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>656</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" t="s">
+        <v>657</v>
+      </c>
+      <c r="E247"/>
+      <c r="F247" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>658</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" t="s">
+        <v>659</v>
+      </c>
+      <c r="E248"/>
+      <c r="F248" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>660</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" t="s">
+        <v>661</v>
+      </c>
+      <c r="E249"/>
+      <c r="F249" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>663</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" t="s">
+        <v>664</v>
+      </c>
+      <c r="E250"/>
+      <c r="F250" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>666</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" t="s">
+        <v>667</v>
+      </c>
+      <c r="E251"/>
+      <c r="F251" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>668</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" t="s">
+        <v>669</v>
+      </c>
+      <c r="E252"/>
+      <c r="F252" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>670</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" t="s">
+        <v>671</v>
+      </c>
+      <c r="E253"/>
+      <c r="F253" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>672</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>673</v>
+      </c>
+      <c r="E254"/>
+      <c r="F254" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>674</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" t="s">
+        <v>675</v>
+      </c>
+      <c r="E255"/>
+      <c r="F255" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>676</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>677</v>
+      </c>
+      <c r="E256"/>
+      <c r="F256" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>678</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>679</v>
+      </c>
+      <c r="E257"/>
+      <c r="F257" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>681</v>
+      </c>
+      <c r="B258" t="s">
+        <v>50</v>
+      </c>
+      <c r="C258" t="s">
+        <v>51</v>
+      </c>
+      <c r="D258" t="s">
+        <v>682</v>
+      </c>
+      <c r="E258"/>
+      <c r="F258" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>684</v>
+      </c>
+      <c r="B259" t="s">
+        <v>50</v>
+      </c>
+      <c r="C259" t="s">
+        <v>51</v>
+      </c>
+      <c r="D259" t="s">
+        <v>685</v>
+      </c>
+      <c r="E259"/>
+      <c r="F259" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>686</v>
+      </c>
+      <c r="B260" t="s">
+        <v>50</v>
+      </c>
+      <c r="C260" t="s">
+        <v>51</v>
+      </c>
+      <c r="D260" t="s">
+        <v>687</v>
+      </c>
+      <c r="E260"/>
+      <c r="F260" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>688</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>689</v>
+      </c>
+      <c r="E261"/>
+      <c r="F261" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>691</v>
+      </c>
+      <c r="B262" t="s">
+        <v>50</v>
+      </c>
+      <c r="C262" t="s">
+        <v>51</v>
+      </c>
+      <c r="D262" t="s">
+        <v>692</v>
+      </c>
+      <c r="E262"/>
+      <c r="F262" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>693</v>
+      </c>
+      <c r="B263" t="s">
+        <v>21</v>
+      </c>
+      <c r="C263" t="s">
+        <v>22</v>
+      </c>
+      <c r="D263" t="s">
+        <v>694</v>
+      </c>
+      <c r="E263"/>
+      <c r="F263" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>696</v>
+      </c>
+      <c r="B264" t="s">
+        <v>21</v>
+      </c>
+      <c r="C264" t="s">
+        <v>22</v>
+      </c>
+      <c r="D264" t="s">
+        <v>697</v>
+      </c>
+      <c r="E264"/>
+      <c r="F264" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>698</v>
+      </c>
+      <c r="B265" t="s">
+        <v>21</v>
+      </c>
+      <c r="C265" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265" t="s">
+        <v>699</v>
+      </c>
+      <c r="E265"/>
+      <c r="F265" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>700</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>701</v>
+      </c>
+      <c r="E266"/>
+      <c r="F266" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>702</v>
+      </c>
+      <c r="B267" t="s">
+        <v>50</v>
+      </c>
+      <c r="C267" t="s">
+        <v>51</v>
+      </c>
+      <c r="D267" t="s">
+        <v>703</v>
+      </c>
+      <c r="E267"/>
+      <c r="F267" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>704</v>
+      </c>
+      <c r="B268" t="s">
+        <v>50</v>
+      </c>
+      <c r="C268" t="s">
+        <v>51</v>
+      </c>
+      <c r="D268" t="s">
+        <v>705</v>
+      </c>
+      <c r="E268"/>
+      <c r="F268" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>707</v>
+      </c>
+      <c r="B269" t="s">
+        <v>50</v>
+      </c>
+      <c r="C269" t="s">
+        <v>51</v>
+      </c>
+      <c r="D269" t="s">
+        <v>708</v>
+      </c>
+      <c r="E269"/>
+      <c r="F269" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>709</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>710</v>
+      </c>
+      <c r="E270"/>
+      <c r="F270" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>711</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" t="s">
+        <v>712</v>
+      </c>
+      <c r="E271"/>
+      <c r="F271" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>713</v>
+      </c>
+      <c r="B272" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="s">
+        <v>714</v>
+      </c>
+      <c r="E272"/>
+      <c r="F272" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>715</v>
+      </c>
+      <c r="B273" t="s">
+        <v>21</v>
+      </c>
+      <c r="C273" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" t="s">
+        <v>716</v>
+      </c>
+      <c r="E273"/>
+      <c r="F273" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>718</v>
+      </c>
+      <c r="B274" t="s">
+        <v>50</v>
+      </c>
+      <c r="C274" t="s">
+        <v>51</v>
+      </c>
+      <c r="D274" t="s">
+        <v>719</v>
+      </c>
+      <c r="E274"/>
+      <c r="F274" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>720</v>
+      </c>
+      <c r="B275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" t="s">
+        <v>721</v>
+      </c>
+      <c r="E275"/>
+      <c r="F275" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>722</v>
+      </c>
+      <c r="B276" t="s">
+        <v>21</v>
+      </c>
+      <c r="C276" t="s">
+        <v>22</v>
+      </c>
+      <c r="D276" t="s">
+        <v>723</v>
+      </c>
+      <c r="E276"/>
+      <c r="F276" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>725</v>
+      </c>
+      <c r="B277" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" t="s">
+        <v>726</v>
+      </c>
+      <c r="E277"/>
+      <c r="F277" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>727</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" t="s">
+        <v>728</v>
+      </c>
+      <c r="E278"/>
+      <c r="F278" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>729</v>
+      </c>
+      <c r="B279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" t="s">
+        <v>730</v>
+      </c>
+      <c r="E279"/>
+      <c r="F279" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>732</v>
+      </c>
+      <c r="B280" t="s">
+        <v>50</v>
+      </c>
+      <c r="C280" t="s">
+        <v>51</v>
+      </c>
+      <c r="D280" t="s">
+        <v>733</v>
+      </c>
+      <c r="E280"/>
+      <c r="F280" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>734</v>
+      </c>
+      <c r="B281" t="s">
+        <v>21</v>
+      </c>
+      <c r="C281" t="s">
+        <v>22</v>
+      </c>
+      <c r="D281" t="s">
+        <v>735</v>
+      </c>
+      <c r="E281"/>
+      <c r="F281" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>737</v>
+      </c>
+      <c r="B282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" t="s">
+        <v>738</v>
+      </c>
+      <c r="E282"/>
+      <c r="F282" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>740</v>
+      </c>
+      <c r="B283" t="s">
+        <v>741</v>
+      </c>
+      <c r="C283" t="s">
+        <v>742</v>
+      </c>
+      <c r="D283" t="s">
+        <v>743</v>
+      </c>
+      <c r="E283"/>
+      <c r="F283" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>745</v>
+      </c>
+      <c r="B284" t="s">
+        <v>21</v>
+      </c>
+      <c r="C284" t="s">
+        <v>22</v>
+      </c>
+      <c r="D284" t="s">
+        <v>746</v>
+      </c>
+      <c r="E284"/>
+      <c r="F284" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>747</v>
+      </c>
+      <c r="B285" t="s">
+        <v>50</v>
+      </c>
+      <c r="C285" t="s">
+        <v>51</v>
+      </c>
+      <c r="D285" t="s">
+        <v>748</v>
+      </c>
+      <c r="E285"/>
+      <c r="F285" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>750</v>
+      </c>
+      <c r="B286" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" t="s">
+        <v>8</v>
+      </c>
+      <c r="D286" t="s">
+        <v>751</v>
+      </c>
+      <c r="E286"/>
+      <c r="F286" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>752</v>
+      </c>
+      <c r="B287" t="s">
+        <v>21</v>
+      </c>
+      <c r="C287" t="s">
+        <v>22</v>
+      </c>
+      <c r="D287" t="s">
+        <v>753</v>
+      </c>
+      <c r="E287"/>
+      <c r="F287" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>755</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>8</v>
+      </c>
+      <c r="D288" t="s">
+        <v>756</v>
+      </c>
+      <c r="E288"/>
+      <c r="F288" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>757</v>
+      </c>
+      <c r="B289" t="s">
+        <v>50</v>
+      </c>
+      <c r="C289" t="s">
+        <v>51</v>
+      </c>
+      <c r="D289" t="s">
+        <v>758</v>
+      </c>
+      <c r="E289"/>
+      <c r="F289" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>759</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" t="s">
+        <v>760</v>
+      </c>
+      <c r="E290"/>
+      <c r="F290" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>761</v>
+      </c>
+      <c r="B291" t="s">
+        <v>21</v>
+      </c>
+      <c r="C291" t="s">
+        <v>22</v>
+      </c>
+      <c r="D291" t="s">
+        <v>762</v>
+      </c>
+      <c r="E291"/>
+      <c r="F291" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>763</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" t="s">
+        <v>764</v>
+      </c>
+      <c r="E292"/>
+      <c r="F292" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>765</v>
+      </c>
+      <c r="B293" t="s">
+        <v>50</v>
+      </c>
+      <c r="C293" t="s">
+        <v>51</v>
+      </c>
+      <c r="D293" t="s">
+        <v>766</v>
+      </c>
+      <c r="E293"/>
+      <c r="F293" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>767</v>
+      </c>
+      <c r="B294" t="s">
+        <v>50</v>
+      </c>
+      <c r="C294" t="s">
+        <v>51</v>
+      </c>
+      <c r="D294" t="s">
+        <v>768</v>
+      </c>
+      <c r="E294"/>
+      <c r="F294" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>769</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" t="s">
+        <v>770</v>
+      </c>
+      <c r="E295"/>
+      <c r="F295" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>772</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" t="s">
+        <v>773</v>
+      </c>
+      <c r="E296"/>
+      <c r="F296" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>775</v>
+      </c>
+      <c r="B297" t="s">
+        <v>50</v>
+      </c>
+      <c r="C297" t="s">
+        <v>51</v>
+      </c>
+      <c r="D297" t="s">
+        <v>776</v>
+      </c>
+      <c r="E297"/>
+      <c r="F297" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>777</v>
+      </c>
+      <c r="B298" t="s">
+        <v>50</v>
+      </c>
+      <c r="C298" t="s">
+        <v>51</v>
+      </c>
+      <c r="D298" t="s">
+        <v>778</v>
+      </c>
+      <c r="E298"/>
+      <c r="F298" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>779</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" t="s">
+        <v>780</v>
+      </c>
+      <c r="E299"/>
+      <c r="F299" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>781</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" t="s">
+        <v>782</v>
+      </c>
+      <c r="E300"/>
+      <c r="F300" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>783</v>
+      </c>
+      <c r="B301" t="s">
+        <v>50</v>
+      </c>
+      <c r="C301" t="s">
+        <v>51</v>
+      </c>
+      <c r="D301" t="s">
+        <v>784</v>
+      </c>
+      <c r="E301"/>
+      <c r="F301" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>786</v>
+      </c>
+      <c r="B302" t="s">
+        <v>50</v>
+      </c>
+      <c r="C302" t="s">
+        <v>51</v>
+      </c>
+      <c r="D302" t="s">
+        <v>787</v>
+      </c>
+      <c r="E302"/>
+      <c r="F302" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>789</v>
+      </c>
+      <c r="B303" t="s">
+        <v>790</v>
+      </c>
+      <c r="C303" t="s">
+        <v>791</v>
+      </c>
+      <c r="D303" t="s">
+        <v>792</v>
+      </c>
+      <c r="E303"/>
+      <c r="F303" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>794</v>
+      </c>
+      <c r="B304" t="s">
+        <v>795</v>
+      </c>
+      <c r="C304" t="s">
+        <v>796</v>
+      </c>
+      <c r="D304" t="s">
+        <v>797</v>
+      </c>
+      <c r="E304"/>
+      <c r="F304" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>799</v>
+      </c>
+      <c r="B305" t="s">
+        <v>21</v>
+      </c>
+      <c r="C305" t="s">
+        <v>22</v>
+      </c>
+      <c r="D305" t="s">
+        <v>800</v>
+      </c>
+      <c r="E305"/>
+      <c r="F305" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
